--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W15_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W15_H100_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7123287671232876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4741641337386018</v>
+        <v>0.4772036474164134</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08851019517799559</v>
+        <v>0.09219452131110181</v>
       </c>
       <c r="J2" t="n">
-        <v>1179.794744050466</v>
+        <v>1175.632561098668</v>
       </c>
       <c r="K2" t="n">
-        <v>1962528.535841309</v>
+        <v>1696790.223210166</v>
       </c>
       <c r="L2" t="n">
-        <v>1400.902757453675</v>
+        <v>1302.609006267869</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6310016659732673</v>
+        <v>0.6809662870512132</v>
       </c>
     </row>
   </sheetData>
